--- a/INTLINE/data/136/ISTAT/Index of Wages according to collective labour agreements by economic sector_historical.xlsx
+++ b/INTLINE/data/136/ISTAT/Index of Wages according to collective labour agreements by economic sector_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:YO18"/>
+  <dimension ref="A1:YP18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3685,6 +3685,11 @@
       <c r="YO1" s="1" t="inlineStr">
         <is>
           <t>2022-04</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
         </is>
       </c>
     </row>
@@ -5326,6 +5331,9 @@
       <c r="YO2" t="n">
         <v>105.1</v>
       </c>
+      <c r="YP2" t="n">
+        <v>105.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -7323,6 +7331,9 @@
         <v>105.5</v>
       </c>
       <c r="YO3" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="YP3" t="n">
         <v>105.6</v>
       </c>
     </row>
@@ -9130,6 +9141,9 @@
         <v>105.6</v>
       </c>
       <c r="YO4" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="YP4" t="n">
         <v>105.6</v>
       </c>
     </row>
@@ -10219,6 +10233,9 @@
       <c r="YO5" t="n">
         <v>103.9</v>
       </c>
+      <c r="YP5" t="n">
+        <v>103.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -11306,6 +11323,9 @@
       <c r="YO6" t="n">
         <v>103.8</v>
       </c>
+      <c r="YP6" t="n">
+        <v>103.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -12393,6 +12413,9 @@
       <c r="YO7" t="n">
         <v>105.8</v>
       </c>
+      <c r="YP7" t="n">
+        <v>105.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -13480,6 +13503,9 @@
       <c r="YO8" t="n">
         <v>105.8</v>
       </c>
+      <c r="YP8" t="n">
+        <v>105.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -15118,6 +15144,9 @@
       </c>
       <c r="YO9" t="n">
         <v>105.2</v>
+      </c>
+      <c r="YP9" t="n">
+        <v>105.3</v>
       </c>
     </row>
     <row r="10">
@@ -16420,6 +16449,9 @@
         <v>105.6</v>
       </c>
       <c r="YO10" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="YP10" t="n">
         <v>105.7</v>
       </c>
     </row>
@@ -17509,6 +17541,9 @@
       <c r="YO11" t="n">
         <v>104.1</v>
       </c>
+      <c r="YP11" t="n">
+        <v>104.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -18596,6 +18631,9 @@
       <c r="YO12" t="n">
         <v>103.8</v>
       </c>
+      <c r="YP12" t="n">
+        <v>103.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -19683,6 +19721,9 @@
       <c r="YO13" t="n">
         <v>106.7</v>
       </c>
+      <c r="YP13" t="n">
+        <v>106.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -20770,6 +20811,9 @@
       <c r="YO14" t="n">
         <v>105.8</v>
       </c>
+      <c r="YP14" t="n">
+        <v>105.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -21857,6 +21901,9 @@
       <c r="YO15" t="n">
         <v>104.7</v>
       </c>
+      <c r="YP15" t="n">
+        <v>104.8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -22944,6 +22991,9 @@
       <c r="YO16" t="n">
         <v>103.8</v>
       </c>
+      <c r="YP16" t="n">
+        <v>103.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -24031,6 +24081,9 @@
       <c r="YO17" t="n">
         <v>105.3</v>
       </c>
+      <c r="YP17" t="n">
+        <v>105.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -25118,6 +25171,9 @@
       <c r="YO18" t="n">
         <v>107.6</v>
       </c>
+      <c r="YP18" t="n">
+        <v>107.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
